--- a/miago/docs/data/conclusion_assay_query.xlsx
+++ b/miago/docs/data/conclusion_assay_query.xlsx
@@ -6796,7 +6796,7 @@
   <dimension ref="A1:D609"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="B604" sqref="B604"/>
+      <selection activeCell="C511" sqref="C511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
